--- a/報價單.xlsx
+++ b/報價單.xlsx
@@ -83,9 +83,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;聯絡人&gt;&gt;</t>
-  </si>
-  <si>
     <t>電    話：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -195,10 +192,6 @@
   </si>
   <si>
     <t>DS 數位文件系統</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登記事項維護、營業登記維護、商業登記維護及工商文件編輯增加憑證數位化功能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -415,19 +408,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;&lt;訓練師&gt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商登記、稅務申報、會計總帳、財產管理、記帳客戶基本維護等增加憑證數位化功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">老客戶回饋專案：
-  A.優惠價:$31,500*90%+$15,000=$43,350（含稅價)，不含到府上課
-  B.有效期限：於10/15確認並付清款項始享有優惠
+  A.老客戶說明會現場專案:$31,500*90%+$15,000=$43,350（含稅價)，不含到府上課
+  B.優惠價有效期限：10/15現場確認，並於10/22前付清款項始享有優惠
   C.此專案僅適用 "數位憑證"
 *******感謝老客戶對文中支持，107/12/31前購買『DV數位憑證』，贈送新出版『DS數位文件』功能******* </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;訓練師&gt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;&lt;年月日流水號&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;聯絡人&gt;&gt; 先生/小姐</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1201,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1221,9 +1221,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1309,6 +1306,394 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1339,15 +1724,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1359,381 +1735,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1770,7 +1771,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="WintonLOGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43D6B79-0788-4DFE-9ABD-617B5B831D82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F43D6B79-0788-4DFE-9ABD-617B5B831D82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1840,7 @@
         <xdr:cNvPr id="3" name="Picture 10" descr="980219文中發票章">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76357334-4827-4C9C-95A7-3D6DB9EDAD8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76357334-4827-4C9C-95A7-3D6DB9EDAD8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,14 +1899,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>306705</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>42544</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>985519</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>13291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1913,7 +1914,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44FCDE6-71D1-4BA3-90AB-1061DD746C47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C44FCDE6-71D1-4BA3-90AB-1061DD746C47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1924,32 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="747474">
+                <a:alpha val="36078"/>
+              </a:srgbClr>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="747474">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:grayscl/>
           <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:artisticCrisscrossEtching/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="20000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -1935,7 +1961,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="306705" y="2133600"/>
+          <a:off x="259080" y="1695450"/>
           <a:ext cx="7632064" cy="6223591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2237,7 +2263,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2251,7 +2277,7 @@
   <dimension ref="A1:IV52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L5"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2274,20 +2300,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12" ht="9.75" customHeight="1">
       <c r="A2" s="2"/>
@@ -2304,30 +2330,30 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="27.75">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2336,1291 +2362,1305 @@
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="K4" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="177" t="s">
+      <c r="K5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="177"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="177" t="s">
+      <c r="K6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="177"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="166" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="166" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
+      <c r="C9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:12" ht="6.75" customHeight="1" thickBot="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="51" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="167" t="s">
+      <c r="B11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="169" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="172" t="s">
+      <c r="G11" s="57"/>
+      <c r="H11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="173"/>
-      <c r="H11" s="152" t="s">
+      <c r="I11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="152" t="s">
+      <c r="J11" s="60"/>
+      <c r="K11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="152"/>
-      <c r="K11" s="154" t="s">
+      <c r="L11" s="63"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A12" s="52"/>
+      <c r="B12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="155"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A12" s="168"/>
-      <c r="B12" s="158" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="160" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="162"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="96" t="s">
+      <c r="B14" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="115"/>
-      <c r="H14" s="101">
+      <c r="G14" s="76"/>
+      <c r="H14" s="77">
         <v>1</v>
       </c>
-      <c r="I14" s="116">
+      <c r="I14" s="79">
         <v>31500</v>
       </c>
-      <c r="J14" s="117"/>
-      <c r="K14" s="142">
+      <c r="J14" s="80"/>
+      <c r="K14" s="83">
         <f>H14*I14</f>
         <v>31500</v>
       </c>
-      <c r="L14" s="143"/>
+      <c r="L14" s="84"/>
     </row>
     <row r="15" spans="1:12" ht="51" customHeight="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="111" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="164"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="120" t="s">
+      <c r="B16" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="115"/>
-      <c r="H16" s="124">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="76"/>
+      <c r="H16" s="94">
         <v>1</v>
       </c>
-      <c r="I16" s="148">
+      <c r="I16" s="118">
         <v>10500</v>
       </c>
-      <c r="J16" s="149"/>
-      <c r="K16" s="131">
+      <c r="J16" s="119"/>
+      <c r="K16" s="103">
         <f>H16*I16</f>
         <v>10500</v>
       </c>
-      <c r="L16" s="132"/>
+      <c r="L16" s="104"/>
     </row>
     <row r="17" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A17" s="121"/>
-      <c r="B17" s="135" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="134"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="96" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="115"/>
-      <c r="H18" s="101">
+      <c r="G18" s="76"/>
+      <c r="H18" s="77">
         <v>1</v>
       </c>
-      <c r="I18" s="116">
+      <c r="I18" s="79">
         <v>15000</v>
       </c>
-      <c r="J18" s="139"/>
-      <c r="K18" s="142">
+      <c r="J18" s="111"/>
+      <c r="K18" s="83">
         <f>H18*I18</f>
         <v>15000</v>
       </c>
-      <c r="L18" s="143"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="1:12" ht="61.5" customHeight="1">
-      <c r="A19" s="97"/>
-      <c r="B19" s="111" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="115"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.149999999999999" customHeight="1">
+      <c r="A20" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="145"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.149999999999999" customHeight="1">
-      <c r="A20" s="96" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77">
+        <v>1</v>
+      </c>
+      <c r="I20" s="79">
+        <v>5250</v>
+      </c>
+      <c r="J20" s="80"/>
+      <c r="K20" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="L20" s="97"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="72"/>
+      <c r="B21" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="101">
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="99"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="124"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="77">
         <v>1</v>
       </c>
-      <c r="I20" s="116">
-        <v>5250</v>
-      </c>
-      <c r="J20" s="117"/>
-      <c r="K20" s="126" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="127"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="97"/>
-      <c r="B21" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="129"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="95"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="96" t="s">
+      <c r="I23" s="126">
+        <v>20000</v>
+      </c>
+      <c r="J23" s="127"/>
+      <c r="K23" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="L23" s="131"/>
+    </row>
+    <row r="24" spans="1:12" ht="79.5" customHeight="1">
+      <c r="A24" s="72"/>
+      <c r="B24" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101">
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="133"/>
+    </row>
+    <row r="25" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="17">
         <v>1</v>
       </c>
-      <c r="I23" s="103">
-        <v>20000</v>
-      </c>
-      <c r="J23" s="104"/>
-      <c r="K23" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="108"/>
-    </row>
-    <row r="24" spans="1:12" ht="79.5" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="110"/>
-    </row>
-    <row r="25" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A25" s="17" t="s">
+      <c r="I25" s="138">
+        <v>8900</v>
+      </c>
+      <c r="J25" s="139"/>
+      <c r="K25" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="L25" s="141"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A26" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="18">
-        <v>1</v>
-      </c>
-      <c r="I25" s="61">
-        <v>8900</v>
-      </c>
-      <c r="J25" s="62"/>
-      <c r="K25" s="63" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="64"/>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A26" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76">
+      <c r="H26" s="152"/>
+      <c r="I26" s="153">
         <f>I28/1.05</f>
         <v>54285.714285714283</v>
       </c>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="155"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76">
+      <c r="A27" s="145"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="151" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="152"/>
+      <c r="I27" s="153">
         <f>INT((I28/1.05) * 0.05)</f>
         <v>2714</v>
       </c>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76">
+      <c r="A28" s="148"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="152"/>
+      <c r="I28" s="153">
         <f>SUM(K14:L24)</f>
         <v>57000</v>
       </c>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="78"/>
-    </row>
-    <row r="29" spans="1:12" s="19" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A29" s="79" t="s">
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
+    </row>
+    <row r="29" spans="1:12" s="18" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A29" s="156" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="161"/>
+    </row>
+    <row r="30" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
+      <c r="A30" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="164"/>
+    </row>
+    <row r="31" spans="1:12" ht="78.599999999999994" customHeight="1" thickBot="1">
+      <c r="A31" s="165" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84"/>
-    </row>
-    <row r="30" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A30" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="87"/>
-    </row>
-    <row r="31" spans="1:12" ht="78.599999999999994" customHeight="1" thickBot="1">
-      <c r="A31" s="88" t="s">
+      <c r="D31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="168"/>
+      <c r="L31" s="169"/>
+    </row>
+    <row r="32" spans="1:12" ht="17.45" customHeight="1" thickBot="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="136"/>
+    </row>
+    <row r="33" spans="1:256" ht="17.45" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90" t="s">
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="136"/>
+    </row>
+    <row r="34" spans="1:256" ht="17.45" customHeight="1">
+      <c r="A34" s="22"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="90"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="92"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
-    </row>
-    <row r="33" spans="1:256" ht="17.45" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="51" t="s">
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="174"/>
+      <c r="L34" s="175"/>
+    </row>
+    <row r="35" spans="1:256" ht="17.45" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
-    </row>
-    <row r="34" spans="1:256" ht="17.45" customHeight="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="54" t="s">
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="175"/>
+    </row>
+    <row r="36" spans="1:256" ht="17.45" customHeight="1">
+      <c r="A36" s="22"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
-    </row>
-    <row r="35" spans="1:256" ht="17.45" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="54" t="s">
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="174"/>
+      <c r="L36" s="175"/>
+    </row>
+    <row r="37" spans="1:256" ht="17.45" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="46"/>
-    </row>
-    <row r="36" spans="1:256" ht="17.45" customHeight="1">
-      <c r="A36" s="23"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="54" t="s">
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="174"/>
+      <c r="L37" s="175"/>
+    </row>
+    <row r="38" spans="1:256" ht="17.45" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
-    </row>
-    <row r="37" spans="1:256" ht="17.45" customHeight="1">
-      <c r="A37" s="23"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="54" t="s">
+      <c r="F38" s="182"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="182"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="182"/>
+      <c r="K38" s="182"/>
+      <c r="L38" s="183"/>
+    </row>
+    <row r="39" spans="1:256" ht="17.45" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
-    </row>
-    <row r="38" spans="1:256" ht="17.45" customHeight="1">
-      <c r="A38" s="23"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="55" t="s">
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="172"/>
+    </row>
+    <row r="40" spans="1:256" ht="17.45" customHeight="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="57"/>
-    </row>
-    <row r="39" spans="1:256" ht="17.45" customHeight="1">
-      <c r="A39" s="23"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="41" t="s">
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="174"/>
+      <c r="K40" s="174"/>
+      <c r="L40" s="175"/>
+    </row>
+    <row r="41" spans="1:256" ht="17.45" customHeight="1" thickBot="1">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="178"/>
+    </row>
+    <row r="42" spans="1:256">
+      <c r="A42" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="43"/>
-    </row>
-    <row r="40" spans="1:256" ht="17.45" customHeight="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="44" t="s">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="32"/>
+      <c r="AO42" s="32"/>
+      <c r="AP42" s="32"/>
+      <c r="AQ42" s="32"/>
+      <c r="AR42" s="32"/>
+      <c r="AS42" s="32"/>
+      <c r="AT42" s="32"/>
+      <c r="AU42" s="32"/>
+      <c r="AV42" s="32"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="32"/>
+      <c r="AY42" s="32"/>
+      <c r="AZ42" s="32"/>
+      <c r="BA42" s="32"/>
+      <c r="BB42" s="32"/>
+      <c r="BC42" s="32"/>
+      <c r="BD42" s="32"/>
+      <c r="BE42" s="32"/>
+      <c r="BF42" s="32"/>
+      <c r="BG42" s="32"/>
+      <c r="BH42" s="32"/>
+      <c r="BI42" s="32"/>
+      <c r="BJ42" s="32"/>
+      <c r="BK42" s="32"/>
+      <c r="BL42" s="32"/>
+      <c r="BM42" s="32"/>
+      <c r="BN42" s="32"/>
+      <c r="BO42" s="32"/>
+      <c r="BP42" s="32"/>
+      <c r="BQ42" s="32"/>
+      <c r="BR42" s="32"/>
+      <c r="BS42" s="32"/>
+      <c r="BT42" s="32"/>
+      <c r="BU42" s="32"/>
+      <c r="BV42" s="32"/>
+      <c r="BW42" s="32"/>
+      <c r="BX42" s="32"/>
+      <c r="BY42" s="32"/>
+      <c r="BZ42" s="32"/>
+      <c r="CA42" s="32"/>
+      <c r="CB42" s="32"/>
+      <c r="CC42" s="32"/>
+      <c r="CD42" s="32"/>
+      <c r="CE42" s="32"/>
+      <c r="CF42" s="32"/>
+      <c r="CG42" s="32"/>
+      <c r="CH42" s="32"/>
+      <c r="CI42" s="32"/>
+      <c r="CJ42" s="32"/>
+      <c r="CK42" s="32"/>
+      <c r="CL42" s="32"/>
+      <c r="CM42" s="32"/>
+      <c r="CN42" s="32"/>
+      <c r="CO42" s="32"/>
+      <c r="CP42" s="32"/>
+      <c r="CQ42" s="32"/>
+      <c r="CR42" s="32"/>
+      <c r="CS42" s="32"/>
+      <c r="CT42" s="32"/>
+      <c r="CU42" s="32"/>
+      <c r="CV42" s="32"/>
+      <c r="CW42" s="32"/>
+      <c r="CX42" s="32"/>
+      <c r="CY42" s="32"/>
+      <c r="CZ42" s="32"/>
+      <c r="DA42" s="32"/>
+      <c r="DB42" s="32"/>
+      <c r="DC42" s="32"/>
+      <c r="DD42" s="32"/>
+      <c r="DE42" s="32"/>
+      <c r="DF42" s="32"/>
+      <c r="DG42" s="32"/>
+      <c r="DH42" s="32"/>
+      <c r="DI42" s="32"/>
+      <c r="DJ42" s="32"/>
+      <c r="DK42" s="32"/>
+      <c r="DL42" s="32"/>
+      <c r="DM42" s="32"/>
+      <c r="DN42" s="32"/>
+      <c r="DO42" s="32"/>
+      <c r="DP42" s="32"/>
+      <c r="DQ42" s="32"/>
+      <c r="DR42" s="32"/>
+      <c r="DS42" s="32"/>
+      <c r="DT42" s="32"/>
+      <c r="DU42" s="32"/>
+      <c r="DV42" s="32"/>
+      <c r="DW42" s="32"/>
+      <c r="DX42" s="32"/>
+      <c r="DY42" s="32"/>
+      <c r="DZ42" s="32"/>
+      <c r="EA42" s="32"/>
+      <c r="EB42" s="32"/>
+      <c r="EC42" s="32"/>
+      <c r="ED42" s="32"/>
+      <c r="EE42" s="32"/>
+      <c r="EF42" s="32"/>
+      <c r="EG42" s="32"/>
+      <c r="EH42" s="32"/>
+      <c r="EI42" s="32"/>
+      <c r="EJ42" s="32"/>
+      <c r="EK42" s="32"/>
+      <c r="EL42" s="32"/>
+      <c r="EM42" s="32"/>
+      <c r="EN42" s="32"/>
+      <c r="EO42" s="32"/>
+      <c r="EP42" s="32"/>
+      <c r="EQ42" s="32"/>
+      <c r="ER42" s="32"/>
+      <c r="ES42" s="32"/>
+      <c r="ET42" s="32"/>
+      <c r="EU42" s="32"/>
+      <c r="EV42" s="32"/>
+      <c r="EW42" s="32"/>
+      <c r="EX42" s="32"/>
+      <c r="EY42" s="32"/>
+      <c r="EZ42" s="32"/>
+      <c r="FA42" s="32"/>
+      <c r="FB42" s="32"/>
+      <c r="FC42" s="32"/>
+      <c r="FD42" s="32"/>
+      <c r="FE42" s="32"/>
+      <c r="FF42" s="32"/>
+      <c r="FG42" s="32"/>
+      <c r="FH42" s="32"/>
+      <c r="FI42" s="32"/>
+      <c r="FJ42" s="32"/>
+      <c r="FK42" s="32"/>
+      <c r="FL42" s="32"/>
+      <c r="FM42" s="32"/>
+      <c r="FN42" s="32"/>
+      <c r="FO42" s="32"/>
+      <c r="FP42" s="32"/>
+      <c r="FQ42" s="32"/>
+      <c r="FR42" s="32"/>
+      <c r="FS42" s="32"/>
+      <c r="FT42" s="32"/>
+      <c r="FU42" s="32"/>
+      <c r="FV42" s="32"/>
+      <c r="FW42" s="32"/>
+      <c r="FX42" s="32"/>
+      <c r="FY42" s="32"/>
+      <c r="FZ42" s="32"/>
+      <c r="GA42" s="32"/>
+      <c r="GB42" s="32"/>
+      <c r="GC42" s="32"/>
+      <c r="GD42" s="32"/>
+      <c r="GE42" s="32"/>
+      <c r="GF42" s="32"/>
+      <c r="GG42" s="32"/>
+      <c r="GH42" s="32"/>
+      <c r="GI42" s="32"/>
+      <c r="GJ42" s="32"/>
+      <c r="GK42" s="32"/>
+      <c r="GL42" s="32"/>
+      <c r="GM42" s="32"/>
+      <c r="GN42" s="32"/>
+      <c r="GO42" s="32"/>
+      <c r="GP42" s="32"/>
+      <c r="GQ42" s="32"/>
+      <c r="GR42" s="32"/>
+      <c r="GS42" s="32"/>
+      <c r="GT42" s="32"/>
+      <c r="GU42" s="32"/>
+      <c r="GV42" s="32"/>
+      <c r="GW42" s="32"/>
+      <c r="GX42" s="32"/>
+      <c r="GY42" s="32"/>
+      <c r="GZ42" s="32"/>
+      <c r="HA42" s="32"/>
+      <c r="HB42" s="32"/>
+      <c r="HC42" s="32"/>
+      <c r="HD42" s="32"/>
+      <c r="HE42" s="32"/>
+      <c r="HF42" s="32"/>
+      <c r="HG42" s="32"/>
+      <c r="HH42" s="32"/>
+      <c r="HI42" s="32"/>
+      <c r="HJ42" s="32"/>
+      <c r="HK42" s="32"/>
+      <c r="HL42" s="32"/>
+      <c r="HM42" s="32"/>
+      <c r="HN42" s="32"/>
+      <c r="HO42" s="32"/>
+      <c r="HP42" s="32"/>
+      <c r="HQ42" s="32"/>
+      <c r="HR42" s="32"/>
+      <c r="HS42" s="32"/>
+      <c r="HT42" s="32"/>
+      <c r="HU42" s="32"/>
+      <c r="HV42" s="32"/>
+      <c r="HW42" s="32"/>
+      <c r="HX42" s="32"/>
+      <c r="HY42" s="32"/>
+      <c r="HZ42" s="32"/>
+      <c r="IA42" s="32"/>
+      <c r="IB42" s="32"/>
+      <c r="IC42" s="32"/>
+      <c r="ID42" s="32"/>
+      <c r="IE42" s="32"/>
+      <c r="IF42" s="32"/>
+      <c r="IG42" s="32"/>
+      <c r="IH42" s="32"/>
+      <c r="II42" s="32"/>
+      <c r="IJ42" s="32"/>
+      <c r="IK42" s="32"/>
+      <c r="IL42" s="32"/>
+      <c r="IM42" s="32"/>
+      <c r="IN42" s="32"/>
+      <c r="IO42" s="32"/>
+      <c r="IP42" s="32"/>
+      <c r="IQ42" s="32"/>
+      <c r="IR42" s="32"/>
+      <c r="IS42" s="32"/>
+      <c r="IT42" s="32"/>
+      <c r="IU42" s="32"/>
+      <c r="IV42" s="32"/>
+    </row>
+    <row r="43" spans="1:256">
+      <c r="A43" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="46"/>
-    </row>
-    <row r="41" spans="1:256" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="49"/>
-    </row>
-    <row r="42" spans="1:256">
-      <c r="A42" s="31" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="32"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="32"/>
+      <c r="AI43" s="32"/>
+      <c r="AJ43" s="32"/>
+      <c r="AK43" s="32"/>
+      <c r="AL43" s="32"/>
+      <c r="AM43" s="32"/>
+      <c r="AN43" s="32"/>
+      <c r="AO43" s="32"/>
+      <c r="AP43" s="32"/>
+      <c r="AQ43" s="32"/>
+      <c r="AR43" s="32"/>
+      <c r="AS43" s="32"/>
+      <c r="AT43" s="32"/>
+      <c r="AU43" s="32"/>
+      <c r="AV43" s="32"/>
+      <c r="AW43" s="32"/>
+      <c r="AX43" s="32"/>
+      <c r="AY43" s="32"/>
+      <c r="AZ43" s="32"/>
+      <c r="BA43" s="32"/>
+      <c r="BB43" s="32"/>
+      <c r="BC43" s="32"/>
+      <c r="BD43" s="32"/>
+      <c r="BE43" s="32"/>
+      <c r="BF43" s="32"/>
+      <c r="BG43" s="32"/>
+      <c r="BH43" s="32"/>
+      <c r="BI43" s="32"/>
+      <c r="BJ43" s="32"/>
+      <c r="BK43" s="32"/>
+      <c r="BL43" s="32"/>
+      <c r="BM43" s="32"/>
+      <c r="BN43" s="32"/>
+      <c r="BO43" s="32"/>
+      <c r="BP43" s="32"/>
+      <c r="BQ43" s="32"/>
+      <c r="BR43" s="32"/>
+      <c r="BS43" s="32"/>
+      <c r="BT43" s="32"/>
+      <c r="BU43" s="32"/>
+      <c r="BV43" s="32"/>
+      <c r="BW43" s="32"/>
+      <c r="BX43" s="32"/>
+      <c r="BY43" s="32"/>
+      <c r="BZ43" s="32"/>
+      <c r="CA43" s="32"/>
+      <c r="CB43" s="32"/>
+      <c r="CC43" s="32"/>
+      <c r="CD43" s="32"/>
+      <c r="CE43" s="32"/>
+      <c r="CF43" s="32"/>
+      <c r="CG43" s="32"/>
+      <c r="CH43" s="32"/>
+      <c r="CI43" s="32"/>
+      <c r="CJ43" s="32"/>
+      <c r="CK43" s="32"/>
+      <c r="CL43" s="32"/>
+      <c r="CM43" s="32"/>
+      <c r="CN43" s="32"/>
+      <c r="CO43" s="32"/>
+      <c r="CP43" s="32"/>
+      <c r="CQ43" s="32"/>
+      <c r="CR43" s="32"/>
+      <c r="CS43" s="32"/>
+      <c r="CT43" s="32"/>
+      <c r="CU43" s="32"/>
+      <c r="CV43" s="32"/>
+      <c r="CW43" s="32"/>
+      <c r="CX43" s="32"/>
+      <c r="CY43" s="32"/>
+      <c r="CZ43" s="32"/>
+      <c r="DA43" s="32"/>
+      <c r="DB43" s="32"/>
+      <c r="DC43" s="32"/>
+      <c r="DD43" s="32"/>
+      <c r="DE43" s="32"/>
+      <c r="DF43" s="32"/>
+      <c r="DG43" s="32"/>
+      <c r="DH43" s="32"/>
+      <c r="DI43" s="32"/>
+      <c r="DJ43" s="32"/>
+      <c r="DK43" s="32"/>
+      <c r="DL43" s="32"/>
+      <c r="DM43" s="32"/>
+      <c r="DN43" s="32"/>
+      <c r="DO43" s="32"/>
+      <c r="DP43" s="32"/>
+      <c r="DQ43" s="32"/>
+      <c r="DR43" s="32"/>
+      <c r="DS43" s="32"/>
+      <c r="DT43" s="32"/>
+      <c r="DU43" s="32"/>
+      <c r="DV43" s="32"/>
+      <c r="DW43" s="32"/>
+      <c r="DX43" s="32"/>
+      <c r="DY43" s="32"/>
+      <c r="DZ43" s="32"/>
+      <c r="EA43" s="32"/>
+      <c r="EB43" s="32"/>
+      <c r="EC43" s="32"/>
+      <c r="ED43" s="32"/>
+      <c r="EE43" s="32"/>
+      <c r="EF43" s="32"/>
+      <c r="EG43" s="32"/>
+      <c r="EH43" s="32"/>
+      <c r="EI43" s="32"/>
+      <c r="EJ43" s="32"/>
+      <c r="EK43" s="32"/>
+      <c r="EL43" s="32"/>
+      <c r="EM43" s="32"/>
+      <c r="EN43" s="32"/>
+      <c r="EO43" s="32"/>
+      <c r="EP43" s="32"/>
+      <c r="EQ43" s="32"/>
+      <c r="ER43" s="32"/>
+      <c r="ES43" s="32"/>
+      <c r="ET43" s="32"/>
+      <c r="EU43" s="32"/>
+      <c r="EV43" s="32"/>
+      <c r="EW43" s="32"/>
+      <c r="EX43" s="32"/>
+      <c r="EY43" s="32"/>
+      <c r="EZ43" s="32"/>
+      <c r="FA43" s="32"/>
+      <c r="FB43" s="32"/>
+      <c r="FC43" s="32"/>
+      <c r="FD43" s="32"/>
+      <c r="FE43" s="32"/>
+      <c r="FF43" s="32"/>
+      <c r="FG43" s="32"/>
+      <c r="FH43" s="32"/>
+      <c r="FI43" s="32"/>
+      <c r="FJ43" s="32"/>
+      <c r="FK43" s="32"/>
+      <c r="FL43" s="32"/>
+      <c r="FM43" s="32"/>
+      <c r="FN43" s="32"/>
+      <c r="FO43" s="32"/>
+      <c r="FP43" s="32"/>
+      <c r="FQ43" s="32"/>
+      <c r="FR43" s="32"/>
+      <c r="FS43" s="32"/>
+      <c r="FT43" s="32"/>
+      <c r="FU43" s="32"/>
+      <c r="FV43" s="32"/>
+      <c r="FW43" s="32"/>
+      <c r="FX43" s="32"/>
+      <c r="FY43" s="32"/>
+      <c r="FZ43" s="32"/>
+      <c r="GA43" s="32"/>
+      <c r="GB43" s="32"/>
+      <c r="GC43" s="32"/>
+      <c r="GD43" s="32"/>
+      <c r="GE43" s="32"/>
+      <c r="GF43" s="32"/>
+      <c r="GG43" s="32"/>
+      <c r="GH43" s="32"/>
+      <c r="GI43" s="32"/>
+      <c r="GJ43" s="32"/>
+      <c r="GK43" s="32"/>
+      <c r="GL43" s="32"/>
+      <c r="GM43" s="32"/>
+      <c r="GN43" s="32"/>
+      <c r="GO43" s="32"/>
+      <c r="GP43" s="32"/>
+      <c r="GQ43" s="32"/>
+      <c r="GR43" s="32"/>
+      <c r="GS43" s="32"/>
+      <c r="GT43" s="32"/>
+      <c r="GU43" s="32"/>
+      <c r="GV43" s="32"/>
+      <c r="GW43" s="32"/>
+      <c r="GX43" s="32"/>
+      <c r="GY43" s="32"/>
+      <c r="GZ43" s="32"/>
+      <c r="HA43" s="32"/>
+      <c r="HB43" s="32"/>
+      <c r="HC43" s="32"/>
+      <c r="HD43" s="32"/>
+      <c r="HE43" s="32"/>
+      <c r="HF43" s="32"/>
+      <c r="HG43" s="32"/>
+      <c r="HH43" s="32"/>
+      <c r="HI43" s="32"/>
+      <c r="HJ43" s="32"/>
+      <c r="HK43" s="32"/>
+      <c r="HL43" s="32"/>
+      <c r="HM43" s="32"/>
+      <c r="HN43" s="32"/>
+      <c r="HO43" s="32"/>
+      <c r="HP43" s="32"/>
+      <c r="HQ43" s="32"/>
+      <c r="HR43" s="32"/>
+      <c r="HS43" s="32"/>
+      <c r="HT43" s="32"/>
+      <c r="HU43" s="32"/>
+      <c r="HV43" s="32"/>
+      <c r="HW43" s="32"/>
+      <c r="HX43" s="32"/>
+      <c r="HY43" s="32"/>
+      <c r="HZ43" s="32"/>
+      <c r="IA43" s="32"/>
+      <c r="IB43" s="32"/>
+      <c r="IC43" s="32"/>
+      <c r="ID43" s="32"/>
+      <c r="IE43" s="32"/>
+      <c r="IF43" s="32"/>
+      <c r="IG43" s="32"/>
+      <c r="IH43" s="32"/>
+      <c r="II43" s="32"/>
+      <c r="IJ43" s="32"/>
+      <c r="IK43" s="32"/>
+      <c r="IL43" s="32"/>
+      <c r="IM43" s="32"/>
+      <c r="IN43" s="32"/>
+      <c r="IO43" s="32"/>
+      <c r="IP43" s="32"/>
+      <c r="IQ43" s="32"/>
+      <c r="IR43" s="32"/>
+      <c r="IS43" s="32"/>
+      <c r="IT43" s="32"/>
+      <c r="IU43" s="32"/>
+      <c r="IV43" s="32"/>
+    </row>
+    <row r="44" spans="1:256">
+      <c r="L44" s="35" t="s">
         <v>69</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="33"/>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="33"/>
-      <c r="AI42" s="33"/>
-      <c r="AJ42" s="33"/>
-      <c r="AK42" s="33"/>
-      <c r="AL42" s="33"/>
-      <c r="AM42" s="33"/>
-      <c r="AN42" s="33"/>
-      <c r="AO42" s="33"/>
-      <c r="AP42" s="33"/>
-      <c r="AQ42" s="33"/>
-      <c r="AR42" s="33"/>
-      <c r="AS42" s="33"/>
-      <c r="AT42" s="33"/>
-      <c r="AU42" s="33"/>
-      <c r="AV42" s="33"/>
-      <c r="AW42" s="33"/>
-      <c r="AX42" s="33"/>
-      <c r="AY42" s="33"/>
-      <c r="AZ42" s="33"/>
-      <c r="BA42" s="33"/>
-      <c r="BB42" s="33"/>
-      <c r="BC42" s="33"/>
-      <c r="BD42" s="33"/>
-      <c r="BE42" s="33"/>
-      <c r="BF42" s="33"/>
-      <c r="BG42" s="33"/>
-      <c r="BH42" s="33"/>
-      <c r="BI42" s="33"/>
-      <c r="BJ42" s="33"/>
-      <c r="BK42" s="33"/>
-      <c r="BL42" s="33"/>
-      <c r="BM42" s="33"/>
-      <c r="BN42" s="33"/>
-      <c r="BO42" s="33"/>
-      <c r="BP42" s="33"/>
-      <c r="BQ42" s="33"/>
-      <c r="BR42" s="33"/>
-      <c r="BS42" s="33"/>
-      <c r="BT42" s="33"/>
-      <c r="BU42" s="33"/>
-      <c r="BV42" s="33"/>
-      <c r="BW42" s="33"/>
-      <c r="BX42" s="33"/>
-      <c r="BY42" s="33"/>
-      <c r="BZ42" s="33"/>
-      <c r="CA42" s="33"/>
-      <c r="CB42" s="33"/>
-      <c r="CC42" s="33"/>
-      <c r="CD42" s="33"/>
-      <c r="CE42" s="33"/>
-      <c r="CF42" s="33"/>
-      <c r="CG42" s="33"/>
-      <c r="CH42" s="33"/>
-      <c r="CI42" s="33"/>
-      <c r="CJ42" s="33"/>
-      <c r="CK42" s="33"/>
-      <c r="CL42" s="33"/>
-      <c r="CM42" s="33"/>
-      <c r="CN42" s="33"/>
-      <c r="CO42" s="33"/>
-      <c r="CP42" s="33"/>
-      <c r="CQ42" s="33"/>
-      <c r="CR42" s="33"/>
-      <c r="CS42" s="33"/>
-      <c r="CT42" s="33"/>
-      <c r="CU42" s="33"/>
-      <c r="CV42" s="33"/>
-      <c r="CW42" s="33"/>
-      <c r="CX42" s="33"/>
-      <c r="CY42" s="33"/>
-      <c r="CZ42" s="33"/>
-      <c r="DA42" s="33"/>
-      <c r="DB42" s="33"/>
-      <c r="DC42" s="33"/>
-      <c r="DD42" s="33"/>
-      <c r="DE42" s="33"/>
-      <c r="DF42" s="33"/>
-      <c r="DG42" s="33"/>
-      <c r="DH42" s="33"/>
-      <c r="DI42" s="33"/>
-      <c r="DJ42" s="33"/>
-      <c r="DK42" s="33"/>
-      <c r="DL42" s="33"/>
-      <c r="DM42" s="33"/>
-      <c r="DN42" s="33"/>
-      <c r="DO42" s="33"/>
-      <c r="DP42" s="33"/>
-      <c r="DQ42" s="33"/>
-      <c r="DR42" s="33"/>
-      <c r="DS42" s="33"/>
-      <c r="DT42" s="33"/>
-      <c r="DU42" s="33"/>
-      <c r="DV42" s="33"/>
-      <c r="DW42" s="33"/>
-      <c r="DX42" s="33"/>
-      <c r="DY42" s="33"/>
-      <c r="DZ42" s="33"/>
-      <c r="EA42" s="33"/>
-      <c r="EB42" s="33"/>
-      <c r="EC42" s="33"/>
-      <c r="ED42" s="33"/>
-      <c r="EE42" s="33"/>
-      <c r="EF42" s="33"/>
-      <c r="EG42" s="33"/>
-      <c r="EH42" s="33"/>
-      <c r="EI42" s="33"/>
-      <c r="EJ42" s="33"/>
-      <c r="EK42" s="33"/>
-      <c r="EL42" s="33"/>
-      <c r="EM42" s="33"/>
-      <c r="EN42" s="33"/>
-      <c r="EO42" s="33"/>
-      <c r="EP42" s="33"/>
-      <c r="EQ42" s="33"/>
-      <c r="ER42" s="33"/>
-      <c r="ES42" s="33"/>
-      <c r="ET42" s="33"/>
-      <c r="EU42" s="33"/>
-      <c r="EV42" s="33"/>
-      <c r="EW42" s="33"/>
-      <c r="EX42" s="33"/>
-      <c r="EY42" s="33"/>
-      <c r="EZ42" s="33"/>
-      <c r="FA42" s="33"/>
-      <c r="FB42" s="33"/>
-      <c r="FC42" s="33"/>
-      <c r="FD42" s="33"/>
-      <c r="FE42" s="33"/>
-      <c r="FF42" s="33"/>
-      <c r="FG42" s="33"/>
-      <c r="FH42" s="33"/>
-      <c r="FI42" s="33"/>
-      <c r="FJ42" s="33"/>
-      <c r="FK42" s="33"/>
-      <c r="FL42" s="33"/>
-      <c r="FM42" s="33"/>
-      <c r="FN42" s="33"/>
-      <c r="FO42" s="33"/>
-      <c r="FP42" s="33"/>
-      <c r="FQ42" s="33"/>
-      <c r="FR42" s="33"/>
-      <c r="FS42" s="33"/>
-      <c r="FT42" s="33"/>
-      <c r="FU42" s="33"/>
-      <c r="FV42" s="33"/>
-      <c r="FW42" s="33"/>
-      <c r="FX42" s="33"/>
-      <c r="FY42" s="33"/>
-      <c r="FZ42" s="33"/>
-      <c r="GA42" s="33"/>
-      <c r="GB42" s="33"/>
-      <c r="GC42" s="33"/>
-      <c r="GD42" s="33"/>
-      <c r="GE42" s="33"/>
-      <c r="GF42" s="33"/>
-      <c r="GG42" s="33"/>
-      <c r="GH42" s="33"/>
-      <c r="GI42" s="33"/>
-      <c r="GJ42" s="33"/>
-      <c r="GK42" s="33"/>
-      <c r="GL42" s="33"/>
-      <c r="GM42" s="33"/>
-      <c r="GN42" s="33"/>
-      <c r="GO42" s="33"/>
-      <c r="GP42" s="33"/>
-      <c r="GQ42" s="33"/>
-      <c r="GR42" s="33"/>
-      <c r="GS42" s="33"/>
-      <c r="GT42" s="33"/>
-      <c r="GU42" s="33"/>
-      <c r="GV42" s="33"/>
-      <c r="GW42" s="33"/>
-      <c r="GX42" s="33"/>
-      <c r="GY42" s="33"/>
-      <c r="GZ42" s="33"/>
-      <c r="HA42" s="33"/>
-      <c r="HB42" s="33"/>
-      <c r="HC42" s="33"/>
-      <c r="HD42" s="33"/>
-      <c r="HE42" s="33"/>
-      <c r="HF42" s="33"/>
-      <c r="HG42" s="33"/>
-      <c r="HH42" s="33"/>
-      <c r="HI42" s="33"/>
-      <c r="HJ42" s="33"/>
-      <c r="HK42" s="33"/>
-      <c r="HL42" s="33"/>
-      <c r="HM42" s="33"/>
-      <c r="HN42" s="33"/>
-      <c r="HO42" s="33"/>
-      <c r="HP42" s="33"/>
-      <c r="HQ42" s="33"/>
-      <c r="HR42" s="33"/>
-      <c r="HS42" s="33"/>
-      <c r="HT42" s="33"/>
-      <c r="HU42" s="33"/>
-      <c r="HV42" s="33"/>
-      <c r="HW42" s="33"/>
-      <c r="HX42" s="33"/>
-      <c r="HY42" s="33"/>
-      <c r="HZ42" s="33"/>
-      <c r="IA42" s="33"/>
-      <c r="IB42" s="33"/>
-      <c r="IC42" s="33"/>
-      <c r="ID42" s="33"/>
-      <c r="IE42" s="33"/>
-      <c r="IF42" s="33"/>
-      <c r="IG42" s="33"/>
-      <c r="IH42" s="33"/>
-      <c r="II42" s="33"/>
-      <c r="IJ42" s="33"/>
-      <c r="IK42" s="33"/>
-      <c r="IL42" s="33"/>
-      <c r="IM42" s="33"/>
-      <c r="IN42" s="33"/>
-      <c r="IO42" s="33"/>
-      <c r="IP42" s="33"/>
-      <c r="IQ42" s="33"/>
-      <c r="IR42" s="33"/>
-      <c r="IS42" s="33"/>
-      <c r="IT42" s="33"/>
-      <c r="IU42" s="33"/>
-      <c r="IV42" s="33"/>
-    </row>
-    <row r="43" spans="1:256">
-      <c r="A43" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="33"/>
-      <c r="AG43" s="33"/>
-      <c r="AH43" s="33"/>
-      <c r="AI43" s="33"/>
-      <c r="AJ43" s="33"/>
-      <c r="AK43" s="33"/>
-      <c r="AL43" s="33"/>
-      <c r="AM43" s="33"/>
-      <c r="AN43" s="33"/>
-      <c r="AO43" s="33"/>
-      <c r="AP43" s="33"/>
-      <c r="AQ43" s="33"/>
-      <c r="AR43" s="33"/>
-      <c r="AS43" s="33"/>
-      <c r="AT43" s="33"/>
-      <c r="AU43" s="33"/>
-      <c r="AV43" s="33"/>
-      <c r="AW43" s="33"/>
-      <c r="AX43" s="33"/>
-      <c r="AY43" s="33"/>
-      <c r="AZ43" s="33"/>
-      <c r="BA43" s="33"/>
-      <c r="BB43" s="33"/>
-      <c r="BC43" s="33"/>
-      <c r="BD43" s="33"/>
-      <c r="BE43" s="33"/>
-      <c r="BF43" s="33"/>
-      <c r="BG43" s="33"/>
-      <c r="BH43" s="33"/>
-      <c r="BI43" s="33"/>
-      <c r="BJ43" s="33"/>
-      <c r="BK43" s="33"/>
-      <c r="BL43" s="33"/>
-      <c r="BM43" s="33"/>
-      <c r="BN43" s="33"/>
-      <c r="BO43" s="33"/>
-      <c r="BP43" s="33"/>
-      <c r="BQ43" s="33"/>
-      <c r="BR43" s="33"/>
-      <c r="BS43" s="33"/>
-      <c r="BT43" s="33"/>
-      <c r="BU43" s="33"/>
-      <c r="BV43" s="33"/>
-      <c r="BW43" s="33"/>
-      <c r="BX43" s="33"/>
-      <c r="BY43" s="33"/>
-      <c r="BZ43" s="33"/>
-      <c r="CA43" s="33"/>
-      <c r="CB43" s="33"/>
-      <c r="CC43" s="33"/>
-      <c r="CD43" s="33"/>
-      <c r="CE43" s="33"/>
-      <c r="CF43" s="33"/>
-      <c r="CG43" s="33"/>
-      <c r="CH43" s="33"/>
-      <c r="CI43" s="33"/>
-      <c r="CJ43" s="33"/>
-      <c r="CK43" s="33"/>
-      <c r="CL43" s="33"/>
-      <c r="CM43" s="33"/>
-      <c r="CN43" s="33"/>
-      <c r="CO43" s="33"/>
-      <c r="CP43" s="33"/>
-      <c r="CQ43" s="33"/>
-      <c r="CR43" s="33"/>
-      <c r="CS43" s="33"/>
-      <c r="CT43" s="33"/>
-      <c r="CU43" s="33"/>
-      <c r="CV43" s="33"/>
-      <c r="CW43" s="33"/>
-      <c r="CX43" s="33"/>
-      <c r="CY43" s="33"/>
-      <c r="CZ43" s="33"/>
-      <c r="DA43" s="33"/>
-      <c r="DB43" s="33"/>
-      <c r="DC43" s="33"/>
-      <c r="DD43" s="33"/>
-      <c r="DE43" s="33"/>
-      <c r="DF43" s="33"/>
-      <c r="DG43" s="33"/>
-      <c r="DH43" s="33"/>
-      <c r="DI43" s="33"/>
-      <c r="DJ43" s="33"/>
-      <c r="DK43" s="33"/>
-      <c r="DL43" s="33"/>
-      <c r="DM43" s="33"/>
-      <c r="DN43" s="33"/>
-      <c r="DO43" s="33"/>
-      <c r="DP43" s="33"/>
-      <c r="DQ43" s="33"/>
-      <c r="DR43" s="33"/>
-      <c r="DS43" s="33"/>
-      <c r="DT43" s="33"/>
-      <c r="DU43" s="33"/>
-      <c r="DV43" s="33"/>
-      <c r="DW43" s="33"/>
-      <c r="DX43" s="33"/>
-      <c r="DY43" s="33"/>
-      <c r="DZ43" s="33"/>
-      <c r="EA43" s="33"/>
-      <c r="EB43" s="33"/>
-      <c r="EC43" s="33"/>
-      <c r="ED43" s="33"/>
-      <c r="EE43" s="33"/>
-      <c r="EF43" s="33"/>
-      <c r="EG43" s="33"/>
-      <c r="EH43" s="33"/>
-      <c r="EI43" s="33"/>
-      <c r="EJ43" s="33"/>
-      <c r="EK43" s="33"/>
-      <c r="EL43" s="33"/>
-      <c r="EM43" s="33"/>
-      <c r="EN43" s="33"/>
-      <c r="EO43" s="33"/>
-      <c r="EP43" s="33"/>
-      <c r="EQ43" s="33"/>
-      <c r="ER43" s="33"/>
-      <c r="ES43" s="33"/>
-      <c r="ET43" s="33"/>
-      <c r="EU43" s="33"/>
-      <c r="EV43" s="33"/>
-      <c r="EW43" s="33"/>
-      <c r="EX43" s="33"/>
-      <c r="EY43" s="33"/>
-      <c r="EZ43" s="33"/>
-      <c r="FA43" s="33"/>
-      <c r="FB43" s="33"/>
-      <c r="FC43" s="33"/>
-      <c r="FD43" s="33"/>
-      <c r="FE43" s="33"/>
-      <c r="FF43" s="33"/>
-      <c r="FG43" s="33"/>
-      <c r="FH43" s="33"/>
-      <c r="FI43" s="33"/>
-      <c r="FJ43" s="33"/>
-      <c r="FK43" s="33"/>
-      <c r="FL43" s="33"/>
-      <c r="FM43" s="33"/>
-      <c r="FN43" s="33"/>
-      <c r="FO43" s="33"/>
-      <c r="FP43" s="33"/>
-      <c r="FQ43" s="33"/>
-      <c r="FR43" s="33"/>
-      <c r="FS43" s="33"/>
-      <c r="FT43" s="33"/>
-      <c r="FU43" s="33"/>
-      <c r="FV43" s="33"/>
-      <c r="FW43" s="33"/>
-      <c r="FX43" s="33"/>
-      <c r="FY43" s="33"/>
-      <c r="FZ43" s="33"/>
-      <c r="GA43" s="33"/>
-      <c r="GB43" s="33"/>
-      <c r="GC43" s="33"/>
-      <c r="GD43" s="33"/>
-      <c r="GE43" s="33"/>
-      <c r="GF43" s="33"/>
-      <c r="GG43" s="33"/>
-      <c r="GH43" s="33"/>
-      <c r="GI43" s="33"/>
-      <c r="GJ43" s="33"/>
-      <c r="GK43" s="33"/>
-      <c r="GL43" s="33"/>
-      <c r="GM43" s="33"/>
-      <c r="GN43" s="33"/>
-      <c r="GO43" s="33"/>
-      <c r="GP43" s="33"/>
-      <c r="GQ43" s="33"/>
-      <c r="GR43" s="33"/>
-      <c r="GS43" s="33"/>
-      <c r="GT43" s="33"/>
-      <c r="GU43" s="33"/>
-      <c r="GV43" s="33"/>
-      <c r="GW43" s="33"/>
-      <c r="GX43" s="33"/>
-      <c r="GY43" s="33"/>
-      <c r="GZ43" s="33"/>
-      <c r="HA43" s="33"/>
-      <c r="HB43" s="33"/>
-      <c r="HC43" s="33"/>
-      <c r="HD43" s="33"/>
-      <c r="HE43" s="33"/>
-      <c r="HF43" s="33"/>
-      <c r="HG43" s="33"/>
-      <c r="HH43" s="33"/>
-      <c r="HI43" s="33"/>
-      <c r="HJ43" s="33"/>
-      <c r="HK43" s="33"/>
-      <c r="HL43" s="33"/>
-      <c r="HM43" s="33"/>
-      <c r="HN43" s="33"/>
-      <c r="HO43" s="33"/>
-      <c r="HP43" s="33"/>
-      <c r="HQ43" s="33"/>
-      <c r="HR43" s="33"/>
-      <c r="HS43" s="33"/>
-      <c r="HT43" s="33"/>
-      <c r="HU43" s="33"/>
-      <c r="HV43" s="33"/>
-      <c r="HW43" s="33"/>
-      <c r="HX43" s="33"/>
-      <c r="HY43" s="33"/>
-      <c r="HZ43" s="33"/>
-      <c r="IA43" s="33"/>
-      <c r="IB43" s="33"/>
-      <c r="IC43" s="33"/>
-      <c r="ID43" s="33"/>
-      <c r="IE43" s="33"/>
-      <c r="IF43" s="33"/>
-      <c r="IG43" s="33"/>
-      <c r="IH43" s="33"/>
-      <c r="II43" s="33"/>
-      <c r="IJ43" s="33"/>
-      <c r="IK43" s="33"/>
-      <c r="IL43" s="33"/>
-      <c r="IM43" s="33"/>
-      <c r="IN43" s="33"/>
-      <c r="IO43" s="33"/>
-      <c r="IP43" s="33"/>
-      <c r="IQ43" s="33"/>
-      <c r="IR43" s="33"/>
-      <c r="IS43" s="33"/>
-      <c r="IT43" s="33"/>
-      <c r="IU43" s="33"/>
-      <c r="IV43" s="33"/>
-    </row>
-    <row r="44" spans="1:256">
-      <c r="L44" s="36" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:256" ht="17.25" thickBot="1">
       <c r="A45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="H45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+    </row>
+    <row r="46" spans="1:256">
+      <c r="D46" s="35"/>
+      <c r="E46" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="H45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-    </row>
-    <row r="46" spans="1:256">
-      <c r="D46" s="36"/>
-      <c r="E46" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="179"/>
+      <c r="J46" s="179"/>
+      <c r="K46" s="179"/>
+      <c r="L46" s="179"/>
     </row>
     <row r="47" spans="1:256">
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
+      <c r="E47" s="179"/>
+      <c r="F47" s="179"/>
+      <c r="G47" s="179"/>
+      <c r="H47" s="179"/>
+      <c r="I47" s="179"/>
+      <c r="J47" s="179"/>
+      <c r="K47" s="179"/>
+      <c r="L47" s="179"/>
     </row>
     <row r="52" spans="13:13">
-      <c r="M52" s="39"/>
+      <c r="M52" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="B15:G15"/>
+  <mergeCells count="80">
+    <mergeCell ref="E39:L39"/>
+    <mergeCell ref="E40:L40"/>
+    <mergeCell ref="E41:L41"/>
+    <mergeCell ref="E46:L47"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="E36:L36"/>
+    <mergeCell ref="E37:L37"/>
+    <mergeCell ref="E38:L38"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:F28"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:J21"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -3637,44 +3677,32 @@
     <mergeCell ref="K18:L19"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="I16:J17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:F28"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="E39:L39"/>
-    <mergeCell ref="E40:L40"/>
-    <mergeCell ref="E41:L41"/>
-    <mergeCell ref="E46:L47"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="E36:L36"/>
-    <mergeCell ref="E37:L37"/>
-    <mergeCell ref="E38:L38"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/報價單.xlsx
+++ b/報價單.xlsx
@@ -408,10 +408,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;訓練師&gt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>工商登記、稅務申報、會計總帳、財產管理、記帳客戶基本維護等增加憑證數位化功能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -428,6 +424,10 @@
   </si>
   <si>
     <t>&lt;&lt;聯絡人&gt;&gt; 先生/小姐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;訓練師&gt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1306,12 +1306,414 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1334,408 +1736,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1771,7 +1771,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="WintonLOGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F43D6B79-0788-4DFE-9ABD-617B5B831D82}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43D6B79-0788-4DFE-9ABD-617B5B831D82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1840,7 @@
         <xdr:cNvPr id="3" name="Picture 10" descr="980219文中發票章">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76357334-4827-4C9C-95A7-3D6DB9EDAD8C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76357334-4827-4C9C-95A7-3D6DB9EDAD8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1914,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C44FCDE6-71D1-4BA3-90AB-1061DD746C47}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44FCDE6-71D1-4BA3-90AB-1061DD746C47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2263,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2276,8 +2276,8 @@
   </sheetPr>
   <dimension ref="A1:IV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2300,20 +2300,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
     </row>
     <row r="2" spans="1:12" ht="9.75" customHeight="1">
       <c r="A2" s="2"/>
@@ -2330,30 +2330,30 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="27.75">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="181"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2362,66 +2362,66 @@
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="49"/>
+      <c r="K4" s="182" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="183"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="42"/>
+      <c r="L5" s="176"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="42"/>
+      <c r="L6" s="176"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="C7" s="164" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
       <c r="I7" s="7"/>
@@ -2438,14 +2438,14 @@
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
       <c r="I8" s="7"/>
       <c r="J8" s="12" t="s">
         <v>17</v>
@@ -2460,14 +2460,14 @@
         <v>19</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
         <v>20</v>
@@ -2491,578 +2491,578 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56" t="s">
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="60" t="s">
+      <c r="G11" s="172"/>
+      <c r="H11" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="62" t="s">
+      <c r="J11" s="151"/>
+      <c r="K11" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="63"/>
+      <c r="L11" s="154"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="66" t="s">
+      <c r="A12" s="167"/>
+      <c r="B12" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="156"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="70"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="161"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75" t="s">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77">
+      <c r="G14" s="114"/>
+      <c r="H14" s="100">
         <v>1</v>
       </c>
-      <c r="I14" s="79">
+      <c r="I14" s="115">
         <v>31500</v>
       </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="83">
+      <c r="J14" s="116"/>
+      <c r="K14" s="141">
         <f>H14*I14</f>
         <v>31500</v>
       </c>
-      <c r="L14" s="84"/>
+      <c r="L14" s="142"/>
     </row>
     <row r="15" spans="1:12" ht="51" customHeight="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="87" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="163"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="75" t="s">
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="94">
+      <c r="G16" s="114"/>
+      <c r="H16" s="123">
         <v>1</v>
       </c>
-      <c r="I16" s="118">
+      <c r="I16" s="147">
         <v>10500</v>
       </c>
-      <c r="J16" s="119"/>
-      <c r="K16" s="103">
+      <c r="J16" s="148"/>
+      <c r="K16" s="130">
         <f>H16*I16</f>
         <v>10500</v>
       </c>
-      <c r="L16" s="104"/>
+      <c r="L16" s="131"/>
     </row>
     <row r="17" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="134" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="133"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75" t="s">
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77">
+      <c r="G18" s="114"/>
+      <c r="H18" s="100">
         <v>1</v>
       </c>
-      <c r="I18" s="79">
+      <c r="I18" s="115">
         <v>15000</v>
       </c>
-      <c r="J18" s="111"/>
-      <c r="K18" s="83">
+      <c r="J18" s="138"/>
+      <c r="K18" s="141">
         <f>H18*I18</f>
         <v>15000</v>
       </c>
-      <c r="L18" s="84"/>
+      <c r="L18" s="142"/>
     </row>
     <row r="19" spans="1:12" ht="61.5" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="87" t="s">
+      <c r="A19" s="96"/>
+      <c r="B19" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="115"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="144"/>
     </row>
     <row r="20" spans="1:12" ht="16.149999999999999" customHeight="1">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77">
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="100">
         <v>1</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I20" s="115">
         <v>5250</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="96" t="s">
+      <c r="J20" s="116"/>
+      <c r="K20" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="L20" s="97"/>
+      <c r="L20" s="126"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="72"/>
-      <c r="B21" s="100" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="99"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="128"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="124"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="94"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="77">
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100">
         <v>1</v>
       </c>
-      <c r="I23" s="126">
+      <c r="I23" s="102">
         <v>20000</v>
       </c>
-      <c r="J23" s="127"/>
-      <c r="K23" s="130" t="s">
+      <c r="J23" s="103"/>
+      <c r="K23" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="131"/>
+      <c r="L23" s="107"/>
     </row>
     <row r="24" spans="1:12" ht="79.5" customHeight="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="87" t="s">
+      <c r="A24" s="96"/>
+      <c r="B24" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="133"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="109"/>
     </row>
     <row r="25" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
       <c r="A25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="17">
         <v>1</v>
       </c>
-      <c r="I25" s="138">
+      <c r="I25" s="60">
         <v>8900</v>
       </c>
-      <c r="J25" s="139"/>
-      <c r="K25" s="140" t="s">
+      <c r="J25" s="61"/>
+      <c r="K25" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="141"/>
+      <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A26" s="142" t="s">
+      <c r="A26" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="151" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="152"/>
-      <c r="I26" s="153">
+      <c r="H26" s="74"/>
+      <c r="I26" s="75">
         <f>I28/1.05</f>
         <v>54285.714285714283</v>
       </c>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="155"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A27" s="145"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="151" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="152"/>
-      <c r="I27" s="153">
+      <c r="H27" s="74"/>
+      <c r="I27" s="75">
         <f>INT((I28/1.05) * 0.05)</f>
         <v>2714</v>
       </c>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="155"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A28" s="148"/>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="152"/>
-      <c r="I28" s="153">
+      <c r="H28" s="74"/>
+      <c r="I28" s="75">
         <f>SUM(K14:L24)</f>
         <v>57000</v>
       </c>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="155"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="77"/>
     </row>
     <row r="29" spans="1:12" s="18" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="161"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="83"/>
     </row>
     <row r="30" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A30" s="162" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="164"/>
+      <c r="A30" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
     </row>
     <row r="31" spans="1:12" ht="78.599999999999994" customHeight="1" thickBot="1">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="166"/>
-      <c r="C31" s="167" t="s">
+      <c r="B31" s="88"/>
+      <c r="C31" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="167"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="168"/>
-      <c r="L31" s="169"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="91"/>
     </row>
     <row r="32" spans="1:12" ht="17.45" customHeight="1" thickBot="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="134" t="s">
+      <c r="E32" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="136"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
     </row>
     <row r="33" spans="1:256" ht="17.45" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="134" t="s">
+      <c r="E33" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="136"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
     </row>
     <row r="34" spans="1:256" ht="17.45" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="25"/>
       <c r="C34" s="23"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="180" t="s">
+      <c r="E34" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="175"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:256" ht="17.45" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="25"/>
       <c r="C35" s="23"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="180" t="s">
+      <c r="E35" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="175"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:256" ht="17.45" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="25"/>
       <c r="C36" s="23"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="180" t="s">
+      <c r="E36" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="174"/>
-      <c r="L36" s="175"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:256" ht="17.45" customHeight="1">
       <c r="A37" s="22"/>
       <c r="B37" s="25"/>
       <c r="C37" s="23"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="180" t="s">
+      <c r="E37" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="174"/>
-      <c r="K37" s="174"/>
-      <c r="L37" s="175"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:256" ht="17.45" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="25"/>
       <c r="C38" s="23"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="181" t="s">
+      <c r="E38" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="182"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="182"/>
-      <c r="K38" s="182"/>
-      <c r="L38" s="183"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="56"/>
     </row>
     <row r="39" spans="1:256" ht="17.45" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="25"/>
       <c r="C39" s="23"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="170" t="s">
+      <c r="E39" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
-      <c r="L39" s="172"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:256" ht="17.45" customHeight="1">
       <c r="A40" s="22"/>
       <c r="B40" s="25"/>
       <c r="C40" s="23"/>
       <c r="D40" s="26"/>
-      <c r="E40" s="173" t="s">
+      <c r="E40" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="174"/>
-      <c r="K40" s="174"/>
-      <c r="L40" s="175"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45"/>
     </row>
     <row r="41" spans="1:256" ht="17.45" customHeight="1" thickBot="1">
       <c r="A41" s="27"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="177"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="178"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="48"/>
     </row>
     <row r="42" spans="1:256">
       <c r="A42" s="30" t="s">
@@ -3584,7 +3584,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
@@ -3597,42 +3597,86 @@
     </row>
     <row r="46" spans="1:256">
       <c r="D46" s="35"/>
-      <c r="E46" s="179" t="s">
+      <c r="E46" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="179"/>
-      <c r="G46" s="179"/>
-      <c r="H46" s="179"/>
-      <c r="I46" s="179"/>
-      <c r="J46" s="179"/>
-      <c r="K46" s="179"/>
-      <c r="L46" s="179"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
     </row>
     <row r="47" spans="1:256">
-      <c r="E47" s="179"/>
-      <c r="F47" s="179"/>
-      <c r="G47" s="179"/>
-      <c r="H47" s="179"/>
-      <c r="I47" s="179"/>
-      <c r="J47" s="179"/>
-      <c r="K47" s="179"/>
-      <c r="L47" s="179"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="E39:L39"/>
-    <mergeCell ref="E40:L40"/>
-    <mergeCell ref="E41:L41"/>
-    <mergeCell ref="E46:L47"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="E36:L36"/>
-    <mergeCell ref="E37:L37"/>
-    <mergeCell ref="E38:L38"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="B24:G24"/>
     <mergeCell ref="E32:L32"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="I25:J25"/>
@@ -3649,60 +3693,16 @@
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E39:L39"/>
+    <mergeCell ref="E40:L40"/>
+    <mergeCell ref="E41:L41"/>
+    <mergeCell ref="E46:L47"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="E36:L36"/>
+    <mergeCell ref="E37:L37"/>
+    <mergeCell ref="E38:L38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/報價單.xlsx
+++ b/報價單.xlsx
@@ -420,14 +420,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;&lt;聯絡人&gt;&gt; 先生/小姐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;訓練師&gt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;&lt;年月日流水號&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;聯絡人&gt;&gt; 先生/小姐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;訓練師&gt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1306,6 +1307,394 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1336,15 +1725,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1357,385 +1737,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1771,7 +1772,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="WintonLOGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43D6B79-0788-4DFE-9ABD-617B5B831D82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F43D6B79-0788-4DFE-9ABD-617B5B831D82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1841,7 @@
         <xdr:cNvPr id="3" name="Picture 10" descr="980219文中發票章">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76357334-4827-4C9C-95A7-3D6DB9EDAD8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76357334-4827-4C9C-95A7-3D6DB9EDAD8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1915,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44FCDE6-71D1-4BA3-90AB-1061DD746C47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C44FCDE6-71D1-4BA3-90AB-1061DD746C47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2264,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2276,8 +2277,8 @@
   </sheetPr>
   <dimension ref="A1:IV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2300,20 +2301,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12" ht="9.75" customHeight="1">
       <c r="A2" s="2"/>
@@ -2330,30 +2331,30 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="27.75">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="181"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2362,66 +2363,66 @@
       <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="182" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="183"/>
+      <c r="K4" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="176" t="s">
+      <c r="K5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="176"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="176" t="s">
+      <c r="K6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="176"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="164" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
+      <c r="C7" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
       <c r="I7" s="7"/>
@@ -2438,14 +2439,14 @@
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="7"/>
       <c r="J8" s="12" t="s">
         <v>17</v>
@@ -2460,14 +2461,14 @@
         <v>19</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="165" t="s">
+      <c r="C9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
         <v>20</v>
@@ -2491,578 +2492,578 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="171" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="172"/>
-      <c r="H11" s="151" t="s">
+      <c r="G11" s="57"/>
+      <c r="H11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="151" t="s">
+      <c r="I11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="151"/>
-      <c r="K11" s="153" t="s">
+      <c r="J11" s="60"/>
+      <c r="K11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="154"/>
+      <c r="L11" s="63"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A12" s="167"/>
-      <c r="B12" s="157" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="156"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="160"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="161"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="113" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="100">
+      <c r="G14" s="76"/>
+      <c r="H14" s="77">
         <v>1</v>
       </c>
-      <c r="I14" s="115">
+      <c r="I14" s="79">
         <v>31500</v>
       </c>
-      <c r="J14" s="116"/>
-      <c r="K14" s="141">
+      <c r="J14" s="80"/>
+      <c r="K14" s="83">
         <f>H14*I14</f>
         <v>31500</v>
       </c>
-      <c r="L14" s="142"/>
+      <c r="L14" s="84"/>
     </row>
     <row r="15" spans="1:12" ht="51" customHeight="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="110" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="163"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="113" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="123">
+      <c r="G16" s="76"/>
+      <c r="H16" s="94">
         <v>1</v>
       </c>
-      <c r="I16" s="147">
+      <c r="I16" s="118">
         <v>10500</v>
       </c>
-      <c r="J16" s="148"/>
-      <c r="K16" s="130">
+      <c r="J16" s="119"/>
+      <c r="K16" s="103">
         <f>H16*I16</f>
         <v>10500</v>
       </c>
-      <c r="L16" s="131"/>
+      <c r="L16" s="104"/>
     </row>
     <row r="17" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A17" s="120"/>
-      <c r="B17" s="134" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="133"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="113" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="100">
+      <c r="G18" s="76"/>
+      <c r="H18" s="77">
         <v>1</v>
       </c>
-      <c r="I18" s="115">
+      <c r="I18" s="79">
         <v>15000</v>
       </c>
-      <c r="J18" s="138"/>
-      <c r="K18" s="141">
+      <c r="J18" s="111"/>
+      <c r="K18" s="83">
         <f>H18*I18</f>
         <v>15000</v>
       </c>
-      <c r="L18" s="142"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="1:12" ht="61.5" customHeight="1">
-      <c r="A19" s="96"/>
-      <c r="B19" s="110" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="115"/>
     </row>
     <row r="20" spans="1:12" ht="16.149999999999999" customHeight="1">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="100">
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77">
         <v>1</v>
       </c>
-      <c r="I20" s="115">
+      <c r="I20" s="79">
         <v>5250</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="125" t="s">
+      <c r="J20" s="80"/>
+      <c r="K20" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="L20" s="126"/>
+      <c r="L20" s="97"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="96"/>
-      <c r="B21" s="129" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="128"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="99"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="94"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="124"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100">
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="77">
         <v>1</v>
       </c>
-      <c r="I23" s="102">
+      <c r="I23" s="126">
         <v>20000</v>
       </c>
-      <c r="J23" s="103"/>
-      <c r="K23" s="106" t="s">
+      <c r="J23" s="127"/>
+      <c r="K23" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="107"/>
+      <c r="L23" s="131"/>
     </row>
     <row r="24" spans="1:12" ht="79.5" customHeight="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="110" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="109"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="133"/>
     </row>
     <row r="25" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
       <c r="A25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
       <c r="H25" s="17">
         <v>1</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="138">
         <v>8900</v>
       </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62" t="s">
+      <c r="J25" s="139"/>
+      <c r="K25" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="63"/>
+      <c r="L25" s="141"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="73" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75">
+      <c r="H26" s="152"/>
+      <c r="I26" s="153">
         <f>I28/1.05</f>
         <v>54285.714285714283</v>
       </c>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="155"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="73" t="s">
+      <c r="A27" s="145"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="74"/>
-      <c r="I27" s="75">
+      <c r="H27" s="152"/>
+      <c r="I27" s="153">
         <f>INT((I28/1.05) * 0.05)</f>
         <v>2714</v>
       </c>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="77"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73" t="s">
+      <c r="A28" s="148"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="75">
+      <c r="H28" s="152"/>
+      <c r="I28" s="153">
         <f>SUM(K14:L24)</f>
         <v>57000</v>
       </c>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="77"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
     </row>
     <row r="29" spans="1:12" s="18" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="83"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="161"/>
     </row>
     <row r="30" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="164"/>
     </row>
     <row r="31" spans="1:12" ht="78.599999999999994" customHeight="1" thickBot="1">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="89" t="s">
+      <c r="B31" s="166"/>
+      <c r="C31" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="168"/>
+      <c r="L31" s="169"/>
     </row>
     <row r="32" spans="1:12" ht="17.45" customHeight="1" thickBot="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="136"/>
     </row>
     <row r="33" spans="1:256" ht="17.45" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="136"/>
     </row>
     <row r="34" spans="1:256" ht="17.45" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="25"/>
       <c r="C34" s="23"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="45"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="174"/>
+      <c r="L34" s="175"/>
     </row>
     <row r="35" spans="1:256" ht="17.45" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="25"/>
       <c r="C35" s="23"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="45"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="175"/>
     </row>
     <row r="36" spans="1:256" ht="17.45" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="25"/>
       <c r="C36" s="23"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="45"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="174"/>
+      <c r="L36" s="175"/>
     </row>
     <row r="37" spans="1:256" ht="17.45" customHeight="1">
       <c r="A37" s="22"/>
       <c r="B37" s="25"/>
       <c r="C37" s="23"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="45"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="174"/>
+      <c r="L37" s="175"/>
     </row>
     <row r="38" spans="1:256" ht="17.45" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="25"/>
       <c r="C38" s="23"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="56"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="182"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="182"/>
+      <c r="K38" s="182"/>
+      <c r="L38" s="183"/>
     </row>
     <row r="39" spans="1:256" ht="17.45" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="25"/>
       <c r="C39" s="23"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="42"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="172"/>
     </row>
     <row r="40" spans="1:256" ht="17.45" customHeight="1">
       <c r="A40" s="22"/>
       <c r="B40" s="25"/>
       <c r="C40" s="23"/>
       <c r="D40" s="26"/>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="45"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="174"/>
+      <c r="K40" s="174"/>
+      <c r="L40" s="175"/>
     </row>
     <row r="41" spans="1:256" ht="17.45" customHeight="1" thickBot="1">
       <c r="A41" s="27"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="48"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="178"/>
     </row>
     <row r="42" spans="1:256">
       <c r="A42" s="30" t="s">
@@ -3584,7 +3585,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
@@ -3597,58 +3598,70 @@
     </row>
     <row r="46" spans="1:256">
       <c r="D46" s="35"/>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="179"/>
+      <c r="J46" s="179"/>
+      <c r="K46" s="179"/>
+      <c r="L46" s="179"/>
     </row>
     <row r="47" spans="1:256">
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
+      <c r="E47" s="179"/>
+      <c r="F47" s="179"/>
+      <c r="G47" s="179"/>
+      <c r="H47" s="179"/>
+      <c r="I47" s="179"/>
+      <c r="J47" s="179"/>
+      <c r="K47" s="179"/>
+      <c r="L47" s="179"/>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="E39:L39"/>
+    <mergeCell ref="E40:L40"/>
+    <mergeCell ref="E41:L41"/>
+    <mergeCell ref="E46:L47"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="E36:L36"/>
+    <mergeCell ref="E37:L37"/>
+    <mergeCell ref="E38:L38"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:F28"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:J21"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -3665,44 +3678,32 @@
     <mergeCell ref="K18:L19"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="I16:J17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:F28"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="E39:L39"/>
-    <mergeCell ref="E40:L40"/>
-    <mergeCell ref="E41:L41"/>
-    <mergeCell ref="E46:L47"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="E36:L36"/>
-    <mergeCell ref="E37:L37"/>
-    <mergeCell ref="E38:L38"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
